--- a/DATA_goal/Junction_Flooding_378.xlsx
+++ b/DATA_goal/Junction_Flooding_378.xlsx
@@ -450,24 +450,24 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.27</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.09</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.1</v>
+        <v>100.96</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.33</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD4" s="4" t="n">
         <v>2.68</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_378.xlsx
+++ b/DATA_goal/Junction_Flooding_378.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45059.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45059.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.49</v>
+        <v>18.122</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.27</v>
+        <v>13.148</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.818</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.85</v>
+        <v>39.669</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.09</v>
+        <v>31.569</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.45</v>
+        <v>14.138</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.51</v>
+        <v>53.278</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.56</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.55</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.3</v>
+        <v>14.024</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>15.842</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.93</v>
+        <v>16.896</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.9</v>
+        <v>4.589</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.76</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.07</v>
+        <v>20.132</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.43</v>
+        <v>12.343</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.52</v>
+        <v>1.405</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.07</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.96</v>
+        <v>210.135</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.21</v>
+        <v>39.933</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.09</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.33</v>
+        <v>26.506</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.56</v>
+        <v>13.806</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.93</v>
+        <v>2.482</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.07</v>
+        <v>26.556</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.63</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.14</v>
+        <v>10.476</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.27</v>
+        <v>12.338</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>16.529</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.01</v>
+        <v>48.831</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.5</v>
+        <v>7.288</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.92</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45059.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.12</v>
+        <v>6.134</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.42</v>
+        <v>4.345</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.65</v>
+        <v>13.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.99</v>
+        <v>10.386</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.8</v>
+        <v>4.746</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.74</v>
+        <v>23.322</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.2</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.04</v>
+        <v>3.205</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.29</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.55</v>
+        <v>5.413</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.95</v>
+        <v>5.842</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.576</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.01</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.26</v>
+        <v>6.845</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.51</v>
+        <v>4.422</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.882</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.8</v>
+        <v>67.102</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.13</v>
+        <v>13.887</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.37</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.41</v>
+        <v>9.051</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.96</v>
+        <v>4.637</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.29</v>
+        <v>1.044</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.71</v>
+        <v>10.946</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.74</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.68</v>
+        <v>3.686</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.66</v>
+        <v>4.328</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.68</v>
+        <v>5.614</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11</v>
+        <v>21.747</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.39</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45059.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.1</v>
+        <v>17.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.63</v>
+        <v>13.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.74</v>
+        <v>38.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.32</v>
+        <v>31.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.16</v>
+        <v>13.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.61</v>
+        <v>51.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.39</v>
+        <v>9.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.54</v>
+        <v>14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.69</v>
+        <v>15.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.97</v>
+        <v>16.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.8</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.16</v>
+        <v>19.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.97</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.39</v>
+        <v>204.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.98</v>
+        <v>38.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.85</v>
+        <v>26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.28</v>
+        <v>13.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.6</v>
+        <v>25.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.14</v>
+        <v>10.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.81</v>
+        <v>11.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.79</v>
+        <v>16.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.01</v>
+        <v>46.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>7.19</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_378.xlsx
+++ b/DATA_goal/Junction_Flooding_378.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45059.50694444445</v>
+        <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.283</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.791</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.507</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.828</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.492</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.237</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.575</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.288</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.473</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.558999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.331</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.141</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.376</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.527</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.419</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.413</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.798</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.636</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>152.85</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.125</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.717000000000001</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.774</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.568</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.805</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>16.47</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.583</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.902</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.722</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.066</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.695</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.181</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.147</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45059.51388888889</v>
+        <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.122</v>
+        <v>9.492000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.148</v>
+        <v>7.266</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.818</v>
+        <v>0.144</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>39.669</v>
+        <v>18.854</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.569</v>
+        <v>16.086</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.138</v>
+        <v>6.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>53.278</v>
+        <v>23.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.106</v>
+        <v>10.558</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.571999999999999</v>
+        <v>5.548</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.024</v>
+        <v>7.305</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.842</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.896</v>
+        <v>8.929</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.589</v>
+        <v>2.902</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.287</v>
+        <v>6.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.132</v>
+        <v>10.071</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.343</v>
+        <v>5.429</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.405</v>
+        <v>0.521</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.173</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>210.135</v>
+        <v>100.961</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>39.933</v>
+        <v>19.205</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.187</v>
+        <v>7.085</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.506</v>
+        <v>13.326</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.806</v>
+        <v>6.555</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.482</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.556</v>
+        <v>12.073</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.648</v>
+        <v>5.628</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.476</v>
+        <v>5.139</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.338</v>
+        <v>7.266</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.529</v>
+        <v>8.456</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.196</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.831</v>
+        <v>21.006</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.288</v>
+        <v>3.501</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.487</v>
+        <v>7.918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45059.52083333334</v>
+        <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.134</v>
+        <v>3.118</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.345</v>
+        <v>2.418</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.003</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.58</v>
+        <v>5.651</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.386</v>
+        <v>4.993</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.746</v>
+        <v>1.798</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.322</v>
+        <v>11.742</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.562</v>
+        <v>3.198</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.205</v>
+        <v>2.045</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.5</v>
+        <v>2.294</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.413</v>
+        <v>2.546</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.842</v>
+        <v>2.952</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.576</v>
+        <v>1.147</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>2.008</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.845</v>
+        <v>3.263</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.422</v>
+        <v>1.513</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.882</v>
+        <v>0.358</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.511</v>
+        <v>0.006</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.102</v>
+        <v>26.805</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.887</v>
+        <v>6.127</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>2.37</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.051</v>
+        <v>4.412</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.637</v>
+        <v>1.963</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.044</v>
+        <v>0.295</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.946</v>
+        <v>5.713</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.985</v>
+        <v>1.743</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.686</v>
+        <v>1.678</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.328</v>
+        <v>2.656</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.614</v>
+        <v>2.684</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.745</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.747</v>
+        <v>11.002</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.642</v>
+        <v>2.389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45059.52777777778</v>
+        <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.68</v>
+        <v>2.095</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.11</v>
+        <v>1.627</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.67</v>
+        <v>3.735</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.33</v>
+        <v>3.317</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.85</v>
+        <v>1.165</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.45</v>
+        <v>7.611</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.122</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.49</v>
+        <v>1.386</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14</v>
+        <v>1.535</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.5</v>
+        <v>1.694</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.49</v>
+        <v>1.974</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>0.799</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>1.322</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.73</v>
+        <v>2.157</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.81</v>
+        <v>0.966</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.278</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.4</v>
+        <v>15.386</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.81</v>
+        <v>3.983</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.84</v>
+        <v>1.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26</v>
+        <v>2.852</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.64</v>
+        <v>1.279</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.197</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.37</v>
+        <v>3.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.169</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.09</v>
+        <v>1.137</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.87</v>
+        <v>1.807</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.24</v>
+        <v>1.787</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.66</v>
+        <v>7.012</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.19</v>
+        <v>0.654</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+        <v>1.573</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.45137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.94</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_378.xlsx
+++ b/DATA_goal/Junction_Flooding_378.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.42361111111</v>
+        <v>45059.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.682</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.404</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.057</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.269</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.974</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.719</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.974</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.211</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.582</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.706</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.605</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.024</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.43055555555</v>
+        <v>45059.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.492000000000001</v>
+        <v>18.122</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.266</v>
+        <v>13.148</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.144</v>
+        <v>1.818</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.854</v>
+        <v>39.669</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.086</v>
+        <v>31.569</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.452</v>
+        <v>14.138</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.51</v>
+        <v>53.278</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.558</v>
+        <v>22.106</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.548</v>
+        <v>9.571999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.305</v>
+        <v>14.024</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>15.842</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.929</v>
+        <v>16.896</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.902</v>
+        <v>4.589</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.76</v>
+        <v>14.287</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.071</v>
+        <v>20.132</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.429</v>
+        <v>12.343</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.521</v>
+        <v>1.405</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.07</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.961</v>
+        <v>210.135</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.205</v>
+        <v>39.933</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.085</v>
+        <v>13.187</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.326</v>
+        <v>26.506</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.555</v>
+        <v>13.806</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>2.482</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.073</v>
+        <v>26.556</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.628</v>
+        <v>11.648</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.139</v>
+        <v>10.476</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.266</v>
+        <v>12.338</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.456</v>
+        <v>16.529</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.006</v>
+        <v>48.831</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.501</v>
+        <v>7.288</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.918</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.4375</v>
+        <v>45059.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.118</v>
+        <v>6.134</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.418</v>
+        <v>4.345</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.003</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.651</v>
+        <v>13.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.993</v>
+        <v>10.386</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.798</v>
+        <v>4.746</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.742</v>
+        <v>23.322</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.198</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.045</v>
+        <v>3.205</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.294</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.546</v>
+        <v>5.413</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.952</v>
+        <v>5.842</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.147</v>
+        <v>1.576</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.008</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.263</v>
+        <v>6.845</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.513</v>
+        <v>4.422</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.358</v>
+        <v>0.882</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.006</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.805</v>
+        <v>67.102</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.127</v>
+        <v>13.887</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.37</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.412</v>
+        <v>9.051</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.963</v>
+        <v>4.637</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.295</v>
+        <v>1.044</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.713</v>
+        <v>10.946</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.743</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.678</v>
+        <v>3.686</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.656</v>
+        <v>4.328</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.684</v>
+        <v>5.614</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.002</v>
+        <v>21.747</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.389</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>45059.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.095</v>
+        <v>17.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.627</v>
+        <v>13.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.735</v>
+        <v>38.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.317</v>
+        <v>31.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.165</v>
+        <v>13.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.611</v>
+        <v>51.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.122</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.386</v>
+        <v>9.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.535</v>
+        <v>14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.694</v>
+        <v>15.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.974</v>
+        <v>16.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.799</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.322</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.157</v>
+        <v>19.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.966</v>
+        <v>11.81</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.278</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.386</v>
+        <v>204.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.983</v>
+        <v>38.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.59</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.852</v>
+        <v>26</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.279</v>
+        <v>13.64</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.197</v>
+        <v>2.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.6</v>
+        <v>25.37</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.169</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.137</v>
+        <v>10.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.807</v>
+        <v>11.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.787</v>
+        <v>16.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.012</v>
+        <v>46.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.654</v>
+        <v>7.19</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.573</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.94</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
